--- a/file/【原本】経営計画書.xlsx
+++ b/file/【原本】経営計画書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csar7\Desktop\mybas_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD9182E-D4A5-4543-8CC2-10F73238CC64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1827809-BD23-4A7B-BB96-532847CE2C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1545" yWindow="1320" windowWidth="26715" windowHeight="13515" xr2:uid="{E46C7AEE-FB8C-4483-8065-E6E6DC86E211}"/>
   </bookViews>
@@ -2461,7 +2461,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="216">
+  <cellXfs count="215">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2816,230 +2816,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="192" fontId="6" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="49" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="192" fontId="15" fillId="2" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="193" fontId="6" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="41" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="50" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="195" fontId="10" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="195" fontId="10" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="195" fontId="10" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="53" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="54" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="55" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
@@ -3132,8 +2908,229 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="54" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="55" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="53" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="195" fontId="10" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="195" fontId="10" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="195" fontId="10" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="41" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="50" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="49" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="192" fontId="15" fillId="2" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="193" fontId="6" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="192" fontId="6" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3534,9 +3531,7 @@
   </sheetPr>
   <dimension ref="A1:Z107"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="12"/>
   <cols>
@@ -3555,54 +3550,54 @@
       <c r="B1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="Q1" s="112" t="s">
+      <c r="Q1" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="112"/>
-      <c r="S1" s="112"/>
-      <c r="T1" s="112"/>
+      <c r="R1" s="207"/>
+      <c r="S1" s="207"/>
+      <c r="T1" s="207"/>
     </row>
     <row r="2" spans="1:20" ht="17.45" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
-      <c r="G2" s="113" t="s">
+      <c r="G2" s="208" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="113"/>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185"/>
-      <c r="K2" s="185"/>
+      <c r="H2" s="208"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
       <c r="L2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="113" t="s">
+      <c r="M2" s="208" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="113"/>
+      <c r="N2" s="208"/>
       <c r="O2" s="4"/>
     </row>
     <row r="3" spans="1:20" ht="18" customHeight="1">
       <c r="O3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="114">
+      <c r="P3" s="209">
         <f ca="1">TODAY()</f>
         <v>45620</v>
       </c>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="114"/>
-      <c r="S3" s="114"/>
+      <c r="Q3" s="209"/>
+      <c r="R3" s="209"/>
+      <c r="S3" s="209"/>
     </row>
     <row r="4" spans="1:20" ht="18" customHeight="1">
       <c r="O4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="115"/>
+      <c r="P4" s="214"/>
+      <c r="Q4" s="214"/>
+      <c r="R4" s="214"/>
+      <c r="S4" s="214"/>
     </row>
     <row r="5" spans="1:20" ht="18" customHeight="1">
       <c r="B5" s="4" t="s">
@@ -3610,21 +3605,6 @@
       </c>
     </row>
     <row r="6" spans="1:20" ht="18" customHeight="1">
-      <c r="D6" s="215"/>
-      <c r="E6" s="215"/>
-      <c r="F6" s="215"/>
-      <c r="G6" s="215"/>
-      <c r="H6" s="215"/>
-      <c r="I6" s="215"/>
-      <c r="J6" s="215"/>
-      <c r="K6" s="215"/>
-      <c r="L6" s="215"/>
-      <c r="M6" s="215"/>
-      <c r="N6" s="215"/>
-      <c r="O6" s="215"/>
-      <c r="P6" s="215"/>
-      <c r="Q6" s="215"/>
-      <c r="R6" s="215"/>
       <c r="S6" s="7"/>
     </row>
     <row r="7" spans="1:20" ht="18" customHeight="1">
@@ -3633,21 +3613,21 @@
       </c>
     </row>
     <row r="8" spans="1:20" ht="18" customHeight="1">
-      <c r="D8" s="214"/>
-      <c r="E8" s="214"/>
-      <c r="F8" s="214"/>
-      <c r="G8" s="214"/>
-      <c r="H8" s="214"/>
-      <c r="I8" s="214"/>
-      <c r="J8" s="214"/>
-      <c r="K8" s="214"/>
-      <c r="L8" s="214"/>
-      <c r="M8" s="214"/>
-      <c r="N8" s="214"/>
-      <c r="O8" s="214"/>
-      <c r="P8" s="214"/>
-      <c r="Q8" s="214"/>
-      <c r="R8" s="214"/>
+      <c r="D8" s="141"/>
+      <c r="E8" s="141"/>
+      <c r="F8" s="141"/>
+      <c r="G8" s="141"/>
+      <c r="H8" s="141"/>
+      <c r="I8" s="141"/>
+      <c r="J8" s="141"/>
+      <c r="K8" s="141"/>
+      <c r="L8" s="141"/>
+      <c r="M8" s="141"/>
+      <c r="N8" s="141"/>
+      <c r="O8" s="141"/>
+      <c r="P8" s="141"/>
+      <c r="Q8" s="141"/>
+      <c r="R8" s="141"/>
       <c r="S8" s="8"/>
     </row>
     <row r="9" spans="1:20" ht="18" customHeight="1">
@@ -3656,53 +3636,53 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="18" customHeight="1">
-      <c r="D10" s="116"/>
-      <c r="E10" s="117" t="s">
+      <c r="D10" s="210"/>
+      <c r="E10" s="211" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="118"/>
-      <c r="G10" s="118"/>
-      <c r="H10" s="118"/>
-      <c r="I10" s="118"/>
-      <c r="J10" s="118"/>
-      <c r="K10" s="117" t="s">
+      <c r="F10" s="212"/>
+      <c r="G10" s="212"/>
+      <c r="H10" s="212"/>
+      <c r="I10" s="212"/>
+      <c r="J10" s="212"/>
+      <c r="K10" s="211" t="s">
         <v>11</v>
       </c>
-      <c r="L10" s="119"/>
+      <c r="L10" s="213"/>
     </row>
     <row r="11" spans="1:20" ht="18" customHeight="1">
-      <c r="D11" s="116"/>
-      <c r="E11" s="116" t="s">
+      <c r="D11" s="210"/>
+      <c r="E11" s="210" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="116"/>
-      <c r="G11" s="116" t="s">
+      <c r="F11" s="210"/>
+      <c r="G11" s="210" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="116"/>
-      <c r="I11" s="116" t="s">
+      <c r="H11" s="210"/>
+      <c r="I11" s="210" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="116"/>
-      <c r="K11" s="117" t="s">
+      <c r="J11" s="210"/>
+      <c r="K11" s="211" t="s">
         <v>12</v>
       </c>
-      <c r="L11" s="119"/>
+      <c r="L11" s="213"/>
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1">
       <c r="D12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="186"/>
-      <c r="F12" s="187"/>
-      <c r="G12" s="188"/>
-      <c r="H12" s="189"/>
-      <c r="I12" s="190"/>
-      <c r="J12" s="191"/>
-      <c r="K12" s="186">
+      <c r="E12" s="113"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="116"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="113">
         <v>50.22</v>
       </c>
-      <c r="L12" s="187"/>
+      <c r="L12" s="114"/>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1">
       <c r="C13" s="10" t="s">
@@ -3714,29 +3694,29 @@
       <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:20" ht="18" customHeight="1">
-      <c r="D14" s="121" t="s">
+      <c r="D14" s="206" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="121"/>
-      <c r="G14" s="121" t="s">
+      <c r="E14" s="206"/>
+      <c r="G14" s="206" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="121"/>
-      <c r="J14" s="121" t="s">
+      <c r="H14" s="206"/>
+      <c r="J14" s="206" t="s">
         <v>19</v>
       </c>
-      <c r="K14" s="121"/>
+      <c r="K14" s="206"/>
     </row>
     <row r="15" spans="1:20" ht="18" customHeight="1">
-      <c r="D15" s="192"/>
-      <c r="E15" s="192"/>
-      <c r="G15" s="193"/>
-      <c r="H15" s="193"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="120"/>
       <c r="I15" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="193"/>
-      <c r="K15" s="193"/>
+      <c r="J15" s="120"/>
+      <c r="K15" s="120"/>
     </row>
     <row r="16" spans="1:20" ht="18" customHeight="1">
       <c r="C16" s="10" t="s">
@@ -3756,27 +3736,27 @@
       <c r="G17" s="11"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1">
-      <c r="D18" s="120" t="s">
+      <c r="D18" s="198" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="120"/>
-      <c r="F18" s="194"/>
-      <c r="G18" s="194"/>
-      <c r="I18" s="120" t="s">
+      <c r="E18" s="198"/>
+      <c r="F18" s="121"/>
+      <c r="G18" s="121"/>
+      <c r="I18" s="198" t="s">
         <v>24</v>
       </c>
-      <c r="J18" s="120"/>
-      <c r="K18" s="194"/>
-      <c r="L18" s="194"/>
-      <c r="N18" s="120" t="s">
+      <c r="J18" s="198"/>
+      <c r="K18" s="121"/>
+      <c r="L18" s="121"/>
+      <c r="N18" s="198" t="s">
         <v>25</v>
       </c>
-      <c r="O18" s="120"/>
-      <c r="P18" s="194">
+      <c r="O18" s="198"/>
+      <c r="P18" s="121">
         <f>F18-K18</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="194"/>
+      <c r="Q18" s="121"/>
     </row>
     <row r="19" spans="1:23" ht="18" customHeight="1">
       <c r="C19" s="10" t="s">
@@ -3804,48 +3784,48 @@
     </row>
     <row r="21" spans="1:23" ht="18" customHeight="1">
       <c r="C21" s="11"/>
-      <c r="D21" s="122" t="s">
+      <c r="D21" s="173" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="123"/>
+      <c r="E21" s="199"/>
       <c r="F21" s="15" t="s">
         <v>32</v>
       </c>
       <c r="G21" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="I21" s="122" t="s">
+      <c r="I21" s="173" t="s">
         <v>31</v>
       </c>
-      <c r="J21" s="123"/>
-      <c r="K21" s="124" t="s">
+      <c r="J21" s="199"/>
+      <c r="K21" s="174" t="s">
         <v>34</v>
       </c>
-      <c r="L21" s="125"/>
-      <c r="N21" s="126" t="s">
+      <c r="L21" s="200"/>
+      <c r="N21" s="201" t="s">
         <v>31</v>
       </c>
-      <c r="O21" s="127"/>
-      <c r="P21" s="130" t="s">
+      <c r="O21" s="202"/>
+      <c r="P21" s="205" t="s">
         <v>32</v>
       </c>
-      <c r="Q21" s="125"/>
+      <c r="Q21" s="200"/>
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1">
-      <c r="D22" s="131" t="s">
+      <c r="D22" s="177" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="132"/>
+      <c r="E22" s="178"/>
       <c r="F22" s="19"/>
       <c r="G22" s="20"/>
-      <c r="I22" s="131" t="s">
+      <c r="I22" s="177" t="s">
         <v>35</v>
       </c>
-      <c r="J22" s="132"/>
-      <c r="K22" s="195"/>
-      <c r="L22" s="196"/>
-      <c r="N22" s="128"/>
-      <c r="O22" s="129"/>
+      <c r="J22" s="178"/>
+      <c r="K22" s="122"/>
+      <c r="L22" s="123"/>
+      <c r="N22" s="203"/>
+      <c r="O22" s="204"/>
       <c r="P22" s="21" t="s">
         <v>36</v>
       </c>
@@ -3854,87 +3834,87 @@
       </c>
     </row>
     <row r="23" spans="1:23" ht="18" customHeight="1" thickBot="1">
-      <c r="D23" s="133" t="s">
+      <c r="D23" s="164" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="134"/>
+      <c r="E23" s="181"/>
       <c r="F23" s="23"/>
       <c r="G23" s="24" t="e">
         <f>F23/F22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I23" s="135" t="s">
+      <c r="I23" s="191" t="s">
         <v>39</v>
       </c>
-      <c r="J23" s="136"/>
-      <c r="K23" s="197"/>
-      <c r="L23" s="198"/>
-      <c r="N23" s="137" t="s">
+      <c r="J23" s="192"/>
+      <c r="K23" s="124"/>
+      <c r="L23" s="125"/>
+      <c r="N23" s="188" t="s">
         <v>40</v>
       </c>
-      <c r="O23" s="138"/>
+      <c r="O23" s="189"/>
       <c r="P23" s="25"/>
       <c r="Q23" s="26"/>
     </row>
     <row r="24" spans="1:23" ht="18" customHeight="1">
-      <c r="D24" s="133" t="s">
+      <c r="D24" s="164" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="134"/>
+      <c r="E24" s="181"/>
       <c r="F24" s="23"/>
       <c r="G24" s="24" t="e">
         <f t="shared" ref="G24:G30" si="0">F24/F23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="139"/>
-      <c r="J24" s="139"/>
-      <c r="K24" s="140"/>
-      <c r="L24" s="141"/>
-      <c r="N24" s="142" t="s">
+      <c r="I24" s="193"/>
+      <c r="J24" s="193"/>
+      <c r="K24" s="194"/>
+      <c r="L24" s="195"/>
+      <c r="N24" s="196" t="s">
         <v>41</v>
       </c>
-      <c r="O24" s="143"/>
+      <c r="O24" s="197"/>
       <c r="P24" s="27"/>
       <c r="Q24" s="28"/>
     </row>
     <row r="25" spans="1:23" ht="18" customHeight="1">
-      <c r="D25" s="133" t="s">
+      <c r="D25" s="164" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="134"/>
+      <c r="E25" s="181"/>
       <c r="F25" s="23"/>
       <c r="G25" s="29" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K25" s="150"/>
-      <c r="L25" s="150"/>
-      <c r="N25" s="137" t="s">
+      <c r="K25" s="144"/>
+      <c r="L25" s="144"/>
+      <c r="N25" s="188" t="s">
         <v>43</v>
       </c>
-      <c r="O25" s="138"/>
+      <c r="O25" s="189"/>
       <c r="P25" s="31"/>
       <c r="Q25" s="32"/>
     </row>
     <row r="26" spans="1:23" ht="18" customHeight="1">
-      <c r="D26" s="133" t="s">
+      <c r="D26" s="164" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="134"/>
+      <c r="E26" s="181"/>
       <c r="F26" s="23"/>
       <c r="G26" s="29" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" s="151"/>
-      <c r="J26" s="151"/>
-      <c r="K26" s="151"/>
-      <c r="L26" s="152"/>
-      <c r="M26" s="152"/>
-      <c r="N26" s="137" t="s">
+      <c r="I26" s="142"/>
+      <c r="J26" s="142"/>
+      <c r="K26" s="142"/>
+      <c r="L26" s="190"/>
+      <c r="M26" s="190"/>
+      <c r="N26" s="188" t="s">
         <v>45</v>
       </c>
-      <c r="O26" s="138"/>
+      <c r="O26" s="189"/>
       <c r="P26" s="31"/>
       <c r="Q26" s="32"/>
     </row>
@@ -3942,10 +3922,10 @@
       <c r="A27" s="33"/>
       <c r="B27" s="33"/>
       <c r="C27" s="33"/>
-      <c r="D27" s="133" t="s">
+      <c r="D27" s="164" t="s">
         <v>46</v>
       </c>
-      <c r="E27" s="134"/>
+      <c r="E27" s="181"/>
       <c r="F27" s="23"/>
       <c r="G27" s="29" t="e">
         <f t="shared" si="0"/>
@@ -3954,21 +3934,21 @@
       <c r="I27" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="J27" s="199"/>
-      <c r="K27" s="199"/>
+      <c r="J27" s="126"/>
+      <c r="K27" s="126"/>
       <c r="M27" s="35"/>
-      <c r="N27" s="144" t="s">
+      <c r="N27" s="182" t="s">
         <v>48</v>
       </c>
-      <c r="O27" s="145"/>
+      <c r="O27" s="183"/>
       <c r="P27" s="36"/>
       <c r="Q27" s="37"/>
     </row>
     <row r="28" spans="1:23" ht="18" customHeight="1">
-      <c r="D28" s="133" t="s">
+      <c r="D28" s="164" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="134"/>
+      <c r="E28" s="181"/>
       <c r="F28" s="23"/>
       <c r="G28" s="29" t="e">
         <f t="shared" si="0"/>
@@ -3981,10 +3961,10 @@
       <c r="W28" s="40"/>
     </row>
     <row r="29" spans="1:23" ht="18" customHeight="1" thickBot="1">
-      <c r="D29" s="146" t="s">
+      <c r="D29" s="184" t="s">
         <v>51</v>
       </c>
-      <c r="E29" s="147"/>
+      <c r="E29" s="185"/>
       <c r="F29" s="41"/>
       <c r="G29" s="42" t="e">
         <f t="shared" si="0"/>
@@ -3993,10 +3973,10 @@
       <c r="W29" s="43"/>
     </row>
     <row r="30" spans="1:23" ht="18" customHeight="1" thickBot="1">
-      <c r="D30" s="148" t="s">
+      <c r="D30" s="186" t="s">
         <v>52</v>
       </c>
-      <c r="E30" s="149"/>
+      <c r="E30" s="187"/>
       <c r="F30" s="44"/>
       <c r="G30" s="45" t="e">
         <f t="shared" si="0"/>
@@ -4005,10 +3985,10 @@
       <c r="W30" s="43"/>
     </row>
     <row r="31" spans="1:23" ht="18" hidden="1" customHeight="1">
-      <c r="D31" s="131" t="s">
+      <c r="D31" s="177" t="s">
         <v>53</v>
       </c>
-      <c r="E31" s="132"/>
+      <c r="E31" s="178"/>
       <c r="F31" s="46">
         <v>562.18009562448981</v>
       </c>
@@ -4018,10 +3998,10 @@
       <c r="W31" s="43"/>
     </row>
     <row r="32" spans="1:23" ht="18" hidden="1" customHeight="1">
-      <c r="D32" s="157" t="s">
+      <c r="D32" s="155" t="s">
         <v>54</v>
       </c>
-      <c r="E32" s="158"/>
+      <c r="E32" s="179"/>
       <c r="F32" s="48">
         <v>-193.26967020756547</v>
       </c>
@@ -4043,24 +4023,24 @@
         <v>55</v>
       </c>
       <c r="E34" s="30"/>
-      <c r="F34" s="153" t="s">
+      <c r="F34" s="180" t="s">
         <v>56</v>
       </c>
-      <c r="G34" s="153"/>
+      <c r="G34" s="180"/>
       <c r="H34" s="54"/>
       <c r="I34" s="55"/>
-      <c r="J34" s="153" t="s">
+      <c r="J34" s="180" t="s">
         <v>57</v>
       </c>
-      <c r="K34" s="153"/>
-      <c r="L34" s="200"/>
-      <c r="M34" s="200"/>
-      <c r="O34" s="153" t="s">
+      <c r="K34" s="180"/>
+      <c r="L34" s="127"/>
+      <c r="M34" s="127"/>
+      <c r="O34" s="180" t="s">
         <v>58</v>
       </c>
-      <c r="P34" s="153"/>
-      <c r="Q34" s="200"/>
-      <c r="R34" s="200"/>
+      <c r="P34" s="180"/>
+      <c r="Q34" s="127"/>
+      <c r="R34" s="127"/>
       <c r="S34" s="30"/>
     </row>
     <row r="35" spans="2:26" ht="18" customHeight="1" thickBot="1">
@@ -4070,16 +4050,16 @@
       <c r="G35" s="50"/>
       <c r="H35" s="56"/>
       <c r="I35" s="56"/>
-      <c r="J35" s="154" t="s">
+      <c r="J35" s="172" t="s">
         <v>59</v>
       </c>
-      <c r="K35" s="154"/>
-      <c r="L35" s="150"/>
-      <c r="M35" s="150"/>
-      <c r="O35" s="154" t="s">
+      <c r="K35" s="172"/>
+      <c r="L35" s="144"/>
+      <c r="M35" s="144"/>
+      <c r="O35" s="172" t="s">
         <v>60</v>
       </c>
-      <c r="P35" s="154"/>
+      <c r="P35" s="172"/>
       <c r="Q35" s="30"/>
       <c r="R35" s="3" t="s">
         <v>61</v>
@@ -4087,11 +4067,11 @@
       <c r="S35" s="57"/>
     </row>
     <row r="36" spans="2:26" ht="18" customHeight="1">
-      <c r="D36" s="122" t="s">
+      <c r="D36" s="173" t="s">
         <v>62</v>
       </c>
-      <c r="E36" s="124"/>
-      <c r="F36" s="124"/>
+      <c r="E36" s="174"/>
+      <c r="F36" s="174"/>
       <c r="G36" s="58" t="s">
         <v>63</v>
       </c>
@@ -4111,11 +4091,11 @@
       <c r="S36" s="59"/>
     </row>
     <row r="37" spans="2:26" ht="18" customHeight="1">
-      <c r="D37" s="155" t="s">
+      <c r="D37" s="175" t="s">
         <v>65</v>
       </c>
-      <c r="E37" s="156"/>
-      <c r="F37" s="156"/>
+      <c r="E37" s="176"/>
+      <c r="F37" s="176"/>
       <c r="G37" s="60"/>
       <c r="H37" s="61" t="s">
         <v>66</v>
@@ -4133,11 +4113,11 @@
       <c r="S37" s="59"/>
     </row>
     <row r="38" spans="2:26" ht="18" customHeight="1">
-      <c r="D38" s="133" t="s">
+      <c r="D38" s="164" t="s">
         <v>67</v>
       </c>
-      <c r="E38" s="159"/>
-      <c r="F38" s="159"/>
+      <c r="E38" s="165"/>
+      <c r="F38" s="165"/>
       <c r="G38" s="63"/>
       <c r="H38" s="64" t="s">
         <v>68</v>
@@ -4155,11 +4135,11 @@
       <c r="S38" s="66"/>
     </row>
     <row r="39" spans="2:26" ht="18" customHeight="1">
-      <c r="D39" s="133" t="s">
+      <c r="D39" s="164" t="s">
         <v>69</v>
       </c>
-      <c r="E39" s="159"/>
-      <c r="F39" s="159"/>
+      <c r="E39" s="165"/>
+      <c r="F39" s="165"/>
       <c r="G39" s="63"/>
       <c r="H39" s="64" t="s">
         <v>70</v>
@@ -4177,11 +4157,11 @@
       <c r="S39" s="66"/>
     </row>
     <row r="40" spans="2:26" ht="18" customHeight="1">
-      <c r="D40" s="133" t="s">
+      <c r="D40" s="164" t="s">
         <v>71</v>
       </c>
-      <c r="E40" s="159"/>
-      <c r="F40" s="159"/>
+      <c r="E40" s="165"/>
+      <c r="F40" s="165"/>
       <c r="G40" s="63"/>
       <c r="H40" s="64" t="s">
         <v>72</v>
@@ -4199,11 +4179,11 @@
       <c r="S40" s="66"/>
     </row>
     <row r="41" spans="2:26" ht="18" customHeight="1">
-      <c r="D41" s="133" t="s">
+      <c r="D41" s="164" t="s">
         <v>73</v>
       </c>
-      <c r="E41" s="159"/>
-      <c r="F41" s="159"/>
+      <c r="E41" s="165"/>
+      <c r="F41" s="165"/>
       <c r="G41" s="63"/>
       <c r="H41" s="64" t="s">
         <v>74</v>
@@ -4221,11 +4201,11 @@
       <c r="S41" s="66"/>
     </row>
     <row r="42" spans="2:26" ht="18" customHeight="1">
-      <c r="D42" s="133" t="s">
+      <c r="D42" s="164" t="s">
         <v>75</v>
       </c>
-      <c r="E42" s="159"/>
-      <c r="F42" s="159"/>
+      <c r="E42" s="165"/>
+      <c r="F42" s="165"/>
       <c r="G42" s="63"/>
       <c r="H42" s="64" t="s">
         <v>76</v>
@@ -4243,11 +4223,11 @@
       <c r="S42" s="68"/>
     </row>
     <row r="43" spans="2:26" ht="18" customHeight="1">
-      <c r="D43" s="133" t="s">
+      <c r="D43" s="164" t="s">
         <v>77</v>
       </c>
-      <c r="E43" s="159"/>
-      <c r="F43" s="159"/>
+      <c r="E43" s="165"/>
+      <c r="F43" s="165"/>
       <c r="G43" s="63"/>
       <c r="H43" s="64" t="s">
         <v>78</v>
@@ -4265,50 +4245,50 @@
       <c r="S43" s="66"/>
     </row>
     <row r="44" spans="2:26" ht="18" customHeight="1">
-      <c r="D44" s="133" t="s">
+      <c r="D44" s="164" t="s">
         <v>79</v>
       </c>
-      <c r="E44" s="159"/>
-      <c r="F44" s="159"/>
+      <c r="E44" s="165"/>
+      <c r="F44" s="165"/>
       <c r="G44" s="69"/>
-      <c r="H44" s="160" t="s">
+      <c r="H44" s="163" t="s">
         <v>80</v>
       </c>
-      <c r="I44" s="160"/>
-      <c r="J44" s="201">
+      <c r="I44" s="163"/>
+      <c r="J44" s="128">
         <v>1350</v>
       </c>
-      <c r="K44" s="201"/>
-      <c r="L44" s="161" t="s">
+      <c r="K44" s="128"/>
+      <c r="L44" s="171" t="s">
         <v>81</v>
       </c>
-      <c r="M44" s="161"/>
-      <c r="N44" s="201">
+      <c r="M44" s="171"/>
+      <c r="N44" s="128">
         <v>0</v>
       </c>
-      <c r="O44" s="201"/>
+      <c r="O44" s="128"/>
       <c r="P44" s="71"/>
       <c r="Q44" s="72"/>
       <c r="R44" s="73"/>
       <c r="S44" s="74"/>
     </row>
     <row r="45" spans="2:26" ht="18" customHeight="1">
-      <c r="D45" s="133" t="s">
+      <c r="D45" s="164" t="s">
         <v>82</v>
       </c>
-      <c r="E45" s="159"/>
-      <c r="F45" s="159"/>
+      <c r="E45" s="165"/>
+      <c r="F45" s="165"/>
       <c r="G45" s="69">
         <v>2990</v>
       </c>
-      <c r="H45" s="162" t="s">
+      <c r="H45" s="167" t="s">
         <v>83</v>
       </c>
-      <c r="I45" s="162"/>
-      <c r="J45" s="202">
+      <c r="I45" s="167"/>
+      <c r="J45" s="129">
         <v>2990</v>
       </c>
-      <c r="K45" s="202"/>
+      <c r="K45" s="129"/>
       <c r="L45" s="75"/>
       <c r="M45" s="75"/>
       <c r="N45" s="75"/>
@@ -4318,51 +4298,51 @@
       <c r="R45" s="76"/>
     </row>
     <row r="46" spans="2:26" ht="18" customHeight="1" thickBot="1">
-      <c r="D46" s="133" t="s">
+      <c r="D46" s="164" t="s">
         <v>84</v>
       </c>
-      <c r="E46" s="159"/>
-      <c r="F46" s="159"/>
+      <c r="E46" s="165"/>
+      <c r="F46" s="165"/>
       <c r="G46" s="77">
         <f>J46</f>
         <v>451</v>
       </c>
-      <c r="H46" s="162" t="s">
+      <c r="H46" s="167" t="s">
         <v>85</v>
       </c>
-      <c r="I46" s="162"/>
-      <c r="J46" s="203">
+      <c r="I46" s="167"/>
+      <c r="J46" s="130">
         <v>451</v>
       </c>
-      <c r="K46" s="203"/>
-      <c r="L46" s="167" t="s">
+      <c r="K46" s="130"/>
+      <c r="L46" s="169" t="s">
         <v>86</v>
       </c>
-      <c r="M46" s="162"/>
+      <c r="M46" s="167"/>
       <c r="N46" s="78"/>
-      <c r="O46" s="168" t="s">
+      <c r="O46" s="170" t="s">
         <v>87</v>
       </c>
-      <c r="P46" s="168"/>
+      <c r="P46" s="170"/>
       <c r="Q46" s="79"/>
       <c r="R46" s="76"/>
       <c r="Z46" s="75"/>
     </row>
     <row r="47" spans="2:26" ht="18" customHeight="1" thickBot="1">
-      <c r="D47" s="169" t="s">
+      <c r="D47" s="157" t="s">
         <v>88</v>
       </c>
-      <c r="E47" s="170"/>
-      <c r="F47" s="170"/>
+      <c r="E47" s="158"/>
+      <c r="F47" s="158"/>
       <c r="G47" s="80"/>
-      <c r="H47" s="171" t="s">
+      <c r="H47" s="159" t="s">
         <v>89</v>
       </c>
-      <c r="I47" s="171"/>
-      <c r="J47" s="171"/>
-      <c r="K47" s="171"/>
-      <c r="L47" s="171"/>
-      <c r="M47" s="171"/>
+      <c r="I47" s="159"/>
+      <c r="J47" s="159"/>
+      <c r="K47" s="159"/>
+      <c r="L47" s="159"/>
+      <c r="M47" s="159"/>
       <c r="N47" s="82"/>
       <c r="O47" s="81"/>
       <c r="P47" s="81"/>
@@ -4370,65 +4350,65 @@
       <c r="R47" s="83"/>
     </row>
     <row r="48" spans="2:26" ht="21.6" customHeight="1">
-      <c r="D48" s="163" t="s">
+      <c r="D48" s="161" t="s">
         <v>90</v>
       </c>
-      <c r="E48" s="164"/>
-      <c r="F48" s="164"/>
+      <c r="E48" s="162"/>
+      <c r="F48" s="162"/>
       <c r="G48" s="84">
         <f>SUM(K48+N48)</f>
         <v>0</v>
       </c>
-      <c r="H48" s="160" t="s">
+      <c r="H48" s="163" t="s">
         <v>91</v>
       </c>
-      <c r="I48" s="160"/>
-      <c r="J48" s="160"/>
-      <c r="K48" s="201"/>
-      <c r="L48" s="201"/>
+      <c r="I48" s="163"/>
+      <c r="J48" s="163"/>
+      <c r="K48" s="128"/>
+      <c r="L48" s="128"/>
       <c r="M48" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="N48" s="201"/>
-      <c r="O48" s="201"/>
+      <c r="N48" s="128"/>
+      <c r="O48" s="128"/>
       <c r="P48" s="85"/>
       <c r="Q48" s="85"/>
       <c r="R48" s="86"/>
       <c r="S48" s="87"/>
     </row>
     <row r="49" spans="2:22" ht="18" customHeight="1">
-      <c r="D49" s="133" t="s">
+      <c r="D49" s="164" t="s">
         <v>93</v>
       </c>
-      <c r="E49" s="159"/>
-      <c r="F49" s="159"/>
+      <c r="E49" s="165"/>
+      <c r="F49" s="165"/>
       <c r="G49" s="84">
         <f>SUM(K49)</f>
         <v>0</v>
       </c>
-      <c r="H49" s="165" t="s">
+      <c r="H49" s="166" t="s">
         <v>94</v>
       </c>
-      <c r="I49" s="162"/>
-      <c r="J49" s="162"/>
-      <c r="K49" s="204"/>
-      <c r="L49" s="204"/>
+      <c r="I49" s="167"/>
+      <c r="J49" s="167"/>
+      <c r="K49" s="131"/>
+      <c r="L49" s="131"/>
       <c r="M49" s="75"/>
-      <c r="N49" s="166">
+      <c r="N49" s="168">
         <v>0</v>
       </c>
-      <c r="O49" s="166"/>
+      <c r="O49" s="168"/>
       <c r="P49" s="88"/>
       <c r="Q49" s="75"/>
       <c r="R49" s="76"/>
       <c r="T49" s="11"/>
     </row>
     <row r="50" spans="2:22" ht="18" customHeight="1" thickBot="1">
-      <c r="D50" s="157" t="s">
+      <c r="D50" s="155" t="s">
         <v>95</v>
       </c>
-      <c r="E50" s="177"/>
-      <c r="F50" s="177"/>
+      <c r="E50" s="156"/>
+      <c r="F50" s="156"/>
       <c r="G50" s="89">
         <v>0</v>
       </c>
@@ -4437,40 +4417,40 @@
       </c>
       <c r="I50" s="91"/>
       <c r="J50" s="92"/>
-      <c r="K50" s="205">
+      <c r="K50" s="132">
         <v>0</v>
       </c>
-      <c r="L50" s="205"/>
+      <c r="L50" s="132"/>
       <c r="M50" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="N50" s="206">
+      <c r="N50" s="133">
         <v>0.1</v>
       </c>
-      <c r="O50" s="206"/>
+      <c r="O50" s="133"/>
       <c r="P50" s="93"/>
       <c r="Q50" s="92"/>
       <c r="R50" s="94"/>
       <c r="T50" s="11"/>
     </row>
     <row r="51" spans="2:22" ht="18" customHeight="1" thickBot="1">
-      <c r="D51" s="169" t="s">
+      <c r="D51" s="157" t="s">
         <v>98</v>
       </c>
-      <c r="E51" s="170"/>
-      <c r="F51" s="170"/>
+      <c r="E51" s="158"/>
+      <c r="F51" s="158"/>
       <c r="G51" s="80">
         <f>SUM(G47:G50)</f>
         <v>0</v>
       </c>
-      <c r="H51" s="171" t="s">
+      <c r="H51" s="159" t="s">
         <v>99</v>
       </c>
-      <c r="I51" s="171"/>
-      <c r="J51" s="171"/>
-      <c r="K51" s="171"/>
-      <c r="L51" s="171"/>
-      <c r="M51" s="171"/>
+      <c r="I51" s="159"/>
+      <c r="J51" s="159"/>
+      <c r="K51" s="159"/>
+      <c r="L51" s="159"/>
+      <c r="M51" s="159"/>
       <c r="N51" s="82"/>
       <c r="O51" s="81"/>
       <c r="P51" s="81"/>
@@ -4508,96 +4488,96 @@
       <c r="L53" s="100"/>
     </row>
     <row r="54" spans="2:22" ht="18" customHeight="1" thickBot="1">
-      <c r="D54" s="178" t="s">
+      <c r="D54" s="160" t="s">
         <v>101</v>
       </c>
-      <c r="E54" s="178"/>
-      <c r="F54" s="178"/>
-      <c r="G54" s="178"/>
-      <c r="H54" s="178"/>
-      <c r="I54" s="213"/>
-      <c r="J54" s="213"/>
+      <c r="E54" s="160"/>
+      <c r="F54" s="160"/>
+      <c r="G54" s="160"/>
+      <c r="H54" s="160"/>
+      <c r="I54" s="140"/>
+      <c r="J54" s="140"/>
     </row>
     <row r="55" spans="2:22" ht="18" customHeight="1">
-      <c r="D55" s="172" t="s">
+      <c r="D55" s="150" t="s">
         <v>102</v>
       </c>
-      <c r="E55" s="173"/>
-      <c r="F55" s="174">
+      <c r="E55" s="151"/>
+      <c r="F55" s="152">
         <v>2026</v>
       </c>
-      <c r="G55" s="174"/>
-      <c r="H55" s="174">
+      <c r="G55" s="152"/>
+      <c r="H55" s="152">
         <f>F55+1</f>
         <v>2027</v>
       </c>
-      <c r="I55" s="174"/>
-      <c r="J55" s="174">
+      <c r="I55" s="152"/>
+      <c r="J55" s="152">
         <f t="shared" ref="J55" si="1">H55+1</f>
         <v>2028</v>
       </c>
-      <c r="K55" s="174"/>
-      <c r="L55" s="174">
+      <c r="K55" s="152"/>
+      <c r="L55" s="152">
         <f t="shared" ref="L55" si="2">J55+1</f>
         <v>2029</v>
       </c>
-      <c r="M55" s="174"/>
-      <c r="N55" s="175">
+      <c r="M55" s="152"/>
+      <c r="N55" s="153">
         <f t="shared" ref="N55" si="3">L55+1</f>
         <v>2030</v>
       </c>
-      <c r="O55" s="176"/>
+      <c r="O55" s="154"/>
       <c r="P55" s="101"/>
     </row>
     <row r="56" spans="2:22" ht="18" customHeight="1">
-      <c r="D56" s="179" t="s">
+      <c r="D56" s="148" t="s">
         <v>103</v>
       </c>
-      <c r="E56" s="180"/>
-      <c r="F56" s="207"/>
-      <c r="G56" s="208"/>
-      <c r="H56" s="207"/>
-      <c r="I56" s="208"/>
-      <c r="J56" s="207"/>
-      <c r="K56" s="208"/>
-      <c r="L56" s="207"/>
-      <c r="M56" s="208"/>
-      <c r="N56" s="207"/>
-      <c r="O56" s="209"/>
+      <c r="E56" s="149"/>
+      <c r="F56" s="134"/>
+      <c r="G56" s="135"/>
+      <c r="H56" s="134"/>
+      <c r="I56" s="135"/>
+      <c r="J56" s="134"/>
+      <c r="K56" s="135"/>
+      <c r="L56" s="134"/>
+      <c r="M56" s="135"/>
+      <c r="N56" s="134"/>
+      <c r="O56" s="136"/>
       <c r="P56" s="102"/>
     </row>
     <row r="57" spans="2:22" ht="18" customHeight="1">
-      <c r="D57" s="179" t="s">
+      <c r="D57" s="148" t="s">
         <v>104</v>
       </c>
-      <c r="E57" s="180"/>
-      <c r="F57" s="207"/>
-      <c r="G57" s="208"/>
-      <c r="H57" s="207"/>
-      <c r="I57" s="208"/>
-      <c r="J57" s="207"/>
-      <c r="K57" s="208"/>
-      <c r="L57" s="207"/>
-      <c r="M57" s="208"/>
-      <c r="N57" s="207"/>
-      <c r="O57" s="209"/>
+      <c r="E57" s="149"/>
+      <c r="F57" s="134"/>
+      <c r="G57" s="135"/>
+      <c r="H57" s="134"/>
+      <c r="I57" s="135"/>
+      <c r="J57" s="134"/>
+      <c r="K57" s="135"/>
+      <c r="L57" s="134"/>
+      <c r="M57" s="135"/>
+      <c r="N57" s="134"/>
+      <c r="O57" s="136"/>
       <c r="P57" s="102"/>
     </row>
     <row r="58" spans="2:22" ht="18" customHeight="1" thickBot="1">
-      <c r="D58" s="182" t="s">
+      <c r="D58" s="146" t="s">
         <v>105</v>
       </c>
-      <c r="E58" s="183"/>
-      <c r="F58" s="210"/>
-      <c r="G58" s="211"/>
-      <c r="H58" s="210"/>
-      <c r="I58" s="211"/>
-      <c r="J58" s="210"/>
-      <c r="K58" s="211"/>
-      <c r="L58" s="210"/>
-      <c r="M58" s="211"/>
-      <c r="N58" s="210"/>
-      <c r="O58" s="212"/>
+      <c r="E58" s="147"/>
+      <c r="F58" s="137"/>
+      <c r="G58" s="138"/>
+      <c r="H58" s="137"/>
+      <c r="I58" s="138"/>
+      <c r="J58" s="137"/>
+      <c r="K58" s="138"/>
+      <c r="L58" s="137"/>
+      <c r="M58" s="138"/>
+      <c r="N58" s="137"/>
+      <c r="O58" s="139"/>
       <c r="P58" s="102"/>
       <c r="U58" s="103"/>
       <c r="V58" s="103"/>
@@ -4636,11 +4616,11 @@
       <c r="T60" s="96"/>
     </row>
     <row r="61" spans="2:22" ht="18" customHeight="1">
-      <c r="C61" s="150" t="s">
+      <c r="C61" s="144" t="s">
         <v>107</v>
       </c>
-      <c r="D61" s="150"/>
-      <c r="E61" s="150"/>
+      <c r="D61" s="144"/>
+      <c r="E61" s="144"/>
       <c r="F61" s="12" t="s">
         <v>108</v>
       </c>
@@ -4648,19 +4628,19 @@
       <c r="H61" s="106" t="s">
         <v>109</v>
       </c>
-      <c r="J61" s="181" t="s">
+      <c r="J61" s="145" t="s">
         <v>110</v>
       </c>
-      <c r="K61" s="181"/>
+      <c r="K61" s="145"/>
       <c r="L61" s="108"/>
       <c r="M61" s="107" t="s">
         <v>111</v>
       </c>
       <c r="N61" s="96"/>
-      <c r="O61" s="181" t="s">
+      <c r="O61" s="145" t="s">
         <v>112</v>
       </c>
-      <c r="P61" s="181"/>
+      <c r="P61" s="145"/>
       <c r="Q61" s="108"/>
       <c r="R61" s="107" t="s">
         <v>109</v>
@@ -4689,16 +4669,16 @@
       <c r="F66" s="30"/>
       <c r="H66" s="30"/>
       <c r="I66" s="30"/>
-      <c r="K66" s="151"/>
-      <c r="L66" s="151"/>
+      <c r="K66" s="142"/>
+      <c r="L66" s="142"/>
     </row>
     <row r="67" spans="1:19" ht="15" customHeight="1">
-      <c r="D67" s="151"/>
-      <c r="E67" s="151"/>
+      <c r="D67" s="142"/>
+      <c r="E67" s="142"/>
     </row>
     <row r="68" spans="1:19" ht="15" customHeight="1">
-      <c r="D68" s="151"/>
-      <c r="E68" s="151"/>
+      <c r="D68" s="142"/>
+      <c r="E68" s="142"/>
       <c r="G68" s="109"/>
       <c r="H68" s="109"/>
     </row>
@@ -4706,8 +4686,8 @@
       <c r="A69" s="110"/>
       <c r="B69" s="110"/>
       <c r="C69" s="110"/>
-      <c r="D69" s="184"/>
-      <c r="E69" s="151"/>
+      <c r="D69" s="143"/>
+      <c r="E69" s="142"/>
       <c r="F69" s="111"/>
       <c r="G69" s="109"/>
       <c r="H69" s="109"/>
@@ -4727,113 +4707,113 @@
       <c r="A70" s="109"/>
       <c r="B70" s="109"/>
       <c r="C70" s="109"/>
-      <c r="D70" s="151"/>
-      <c r="E70" s="151"/>
+      <c r="D70" s="142"/>
+      <c r="E70" s="142"/>
     </row>
     <row r="71" spans="1:19" ht="15" customHeight="1">
       <c r="A71" s="109"/>
       <c r="B71" s="109"/>
       <c r="C71" s="109"/>
-      <c r="D71" s="151"/>
-      <c r="E71" s="151"/>
+      <c r="D71" s="142"/>
+      <c r="E71" s="142"/>
     </row>
     <row r="72" spans="1:19" ht="15" customHeight="1">
       <c r="A72" s="109"/>
       <c r="B72" s="109"/>
       <c r="C72" s="109"/>
-      <c r="D72" s="151"/>
-      <c r="E72" s="151"/>
+      <c r="D72" s="142"/>
+      <c r="E72" s="142"/>
     </row>
     <row r="73" spans="1:19" ht="15" customHeight="1">
       <c r="A73" s="110"/>
       <c r="B73" s="110"/>
       <c r="C73" s="110"/>
-      <c r="D73" s="151"/>
-      <c r="E73" s="151"/>
+      <c r="D73" s="142"/>
+      <c r="E73" s="142"/>
     </row>
     <row r="74" spans="1:19" ht="15" customHeight="1">
-      <c r="D74" s="151"/>
-      <c r="E74" s="151"/>
+      <c r="D74" s="142"/>
+      <c r="E74" s="142"/>
     </row>
     <row r="75" spans="1:19" ht="15" customHeight="1">
-      <c r="D75" s="151"/>
-      <c r="E75" s="151"/>
+      <c r="D75" s="142"/>
+      <c r="E75" s="142"/>
     </row>
     <row r="76" spans="1:19" ht="15" customHeight="1">
-      <c r="D76" s="151"/>
-      <c r="E76" s="151"/>
+      <c r="D76" s="142"/>
+      <c r="E76" s="142"/>
     </row>
     <row r="77" spans="1:19" ht="15" customHeight="1">
-      <c r="D77" s="151"/>
-      <c r="E77" s="151"/>
+      <c r="D77" s="142"/>
+      <c r="E77" s="142"/>
     </row>
     <row r="78" spans="1:19" ht="15" customHeight="1">
-      <c r="D78" s="151"/>
-      <c r="E78" s="151"/>
+      <c r="D78" s="142"/>
+      <c r="E78" s="142"/>
     </row>
     <row r="79" spans="1:19" ht="15" customHeight="1">
-      <c r="D79" s="151"/>
-      <c r="E79" s="151"/>
+      <c r="D79" s="142"/>
+      <c r="E79" s="142"/>
     </row>
     <row r="80" spans="1:19" ht="15" customHeight="1">
-      <c r="D80" s="151"/>
-      <c r="E80" s="151"/>
+      <c r="D80" s="142"/>
+      <c r="E80" s="142"/>
     </row>
     <row r="81" spans="4:5" ht="15" customHeight="1">
-      <c r="D81" s="151"/>
-      <c r="E81" s="151"/>
+      <c r="D81" s="142"/>
+      <c r="E81" s="142"/>
     </row>
     <row r="82" spans="4:5" ht="15" customHeight="1">
-      <c r="D82" s="151"/>
-      <c r="E82" s="151"/>
+      <c r="D82" s="142"/>
+      <c r="E82" s="142"/>
     </row>
     <row r="83" spans="4:5" ht="15" customHeight="1">
-      <c r="D83" s="151"/>
-      <c r="E83" s="151"/>
+      <c r="D83" s="142"/>
+      <c r="E83" s="142"/>
     </row>
     <row r="84" spans="4:5" ht="15" customHeight="1">
-      <c r="D84" s="151"/>
-      <c r="E84" s="151"/>
+      <c r="D84" s="142"/>
+      <c r="E84" s="142"/>
     </row>
     <row r="85" spans="4:5" ht="15" customHeight="1">
-      <c r="D85" s="151"/>
-      <c r="E85" s="151"/>
+      <c r="D85" s="142"/>
+      <c r="E85" s="142"/>
     </row>
     <row r="86" spans="4:5" ht="18" customHeight="1">
-      <c r="D86" s="151"/>
-      <c r="E86" s="151"/>
+      <c r="D86" s="142"/>
+      <c r="E86" s="142"/>
     </row>
     <row r="87" spans="4:5" ht="18" customHeight="1">
-      <c r="D87" s="151"/>
-      <c r="E87" s="151"/>
+      <c r="D87" s="142"/>
+      <c r="E87" s="142"/>
     </row>
     <row r="88" spans="4:5" ht="18" customHeight="1">
-      <c r="D88" s="151"/>
-      <c r="E88" s="151"/>
+      <c r="D88" s="142"/>
+      <c r="E88" s="142"/>
     </row>
     <row r="89" spans="4:5" ht="18" customHeight="1">
-      <c r="D89" s="151"/>
-      <c r="E89" s="151"/>
+      <c r="D89" s="142"/>
+      <c r="E89" s="142"/>
     </row>
     <row r="90" spans="4:5" ht="18" customHeight="1">
-      <c r="D90" s="151"/>
-      <c r="E90" s="151"/>
+      <c r="D90" s="142"/>
+      <c r="E90" s="142"/>
     </row>
     <row r="91" spans="4:5" ht="18" customHeight="1">
-      <c r="D91" s="151"/>
-      <c r="E91" s="151"/>
+      <c r="D91" s="142"/>
+      <c r="E91" s="142"/>
     </row>
     <row r="92" spans="4:5" ht="18" customHeight="1">
-      <c r="D92" s="151"/>
-      <c r="E92" s="151"/>
+      <c r="D92" s="142"/>
+      <c r="E92" s="142"/>
     </row>
     <row r="93" spans="4:5" ht="18" customHeight="1">
-      <c r="D93" s="151"/>
-      <c r="E93" s="151"/>
+      <c r="D93" s="142"/>
+      <c r="E93" s="142"/>
     </row>
     <row r="94" spans="4:5" ht="18" customHeight="1">
-      <c r="D94" s="151"/>
-      <c r="E94" s="151"/>
+      <c r="D94" s="142"/>
+      <c r="E94" s="142"/>
     </row>
     <row r="95" spans="4:5" ht="18" customHeight="1"/>
     <row r="96" spans="4:5" ht="18" customHeight="1"/>
@@ -4849,7 +4829,113 @@
     <row r="106" ht="18" customHeight="1"/>
     <row r="107" ht="18" customHeight="1"/>
   </sheetData>
-  <mergeCells count="121">
+  <mergeCells count="120">
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="N21:O22"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="H47:M47"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="H51:M51"/>
+    <mergeCell ref="D54:H54"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="O61:P61"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D74:E74"/>
     <mergeCell ref="D93:E93"/>
     <mergeCell ref="D94:E94"/>
     <mergeCell ref="D87:E87"/>
@@ -4864,113 +4950,6 @@
     <mergeCell ref="D84:E84"/>
     <mergeCell ref="D85:E85"/>
     <mergeCell ref="D86:E86"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="O61:P61"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="H51:M51"/>
-    <mergeCell ref="D54:H54"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="H47:M47"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="N21:O22"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="F61">

--- a/file/【原本】経営計画書.xlsx
+++ b/file/【原本】経営計画書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csar7\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csar7\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DFB5BFA-2C65-46A4-8A4C-403F465BEBC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35A7813-FEE0-4D51-AF68-A8C4653682C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="1245" windowWidth="26715" windowHeight="13515" xr2:uid="{34508500-E495-407F-A4BB-0D043D80C209}"/>
+    <workbookView xWindow="1155" yWindow="915" windowWidth="26715" windowHeight="13515" xr2:uid="{34508500-E495-407F-A4BB-0D043D80C209}"/>
   </bookViews>
   <sheets>
     <sheet name="経営計画書" sheetId="1" r:id="rId1"/>
@@ -40,18 +40,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="209">
-  <si>
-    <t>住宅街立地</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="110">
   <si>
     <t>更新日：2022年6月</t>
   </si>
   <si>
     <t>まいばすけっと</t>
-  </si>
-  <si>
-    <t>杉並区永福3-47-11</t>
   </si>
   <si>
     <t>店</t>
@@ -86,9 +80,6 @@
       <t>サクセイシャ</t>
     </rPh>
     <phoneticPr fontId="0"/>
-  </si>
-  <si>
-    <t>新井</t>
   </si>
   <si>
     <t>１．物件地周辺の概要　</t>
@@ -601,9 +592,6 @@
     <phoneticPr fontId="0"/>
   </si>
   <si>
-    <t>標準新築</t>
-  </si>
-  <si>
     <t>出店立地：</t>
   </si>
   <si>
@@ -612,9 +600,6 @@
       <t>チュウシャジョウ</t>
     </rPh>
     <phoneticPr fontId="0"/>
-  </si>
-  <si>
-    <t>なし</t>
   </si>
   <si>
     <t>駐車台数：</t>
@@ -1213,289 +1198,6 @@
     </rPh>
     <phoneticPr fontId="0"/>
   </si>
-  <si>
-    <t>項目</t>
-  </si>
-  <si>
-    <t>内容</t>
-  </si>
-  <si>
-    <t>店舗名</t>
-  </si>
-  <si>
-    <t>作成者</t>
-  </si>
-  <si>
-    <t>概要</t>
-  </si>
-  <si>
-    <t>テスト</t>
-  </si>
-  <si>
-    <t>生活者特性</t>
-  </si>
-  <si>
-    <t>世帯数</t>
-  </si>
-  <si>
-    <t>人口</t>
-  </si>
-  <si>
-    <t>平均人口</t>
-  </si>
-  <si>
-    <t>契約面積</t>
-  </si>
-  <si>
-    <t>店舗面積</t>
-  </si>
-  <si>
-    <t>引渡し</t>
-  </si>
-  <si>
-    <t>2026年10月</t>
-  </si>
-  <si>
-    <t>開店日</t>
-  </si>
-  <si>
-    <t>7:00:00</t>
-  </si>
-  <si>
-    <t>閉店日</t>
-  </si>
-  <si>
-    <t>23:00:00</t>
-  </si>
-  <si>
-    <t>売上</t>
-  </si>
-  <si>
-    <t>18371.900</t>
-  </si>
-  <si>
-    <t>利益</t>
-  </si>
-  <si>
-    <t>4835.140</t>
-  </si>
-  <si>
-    <t>人件費</t>
-  </si>
-  <si>
-    <t>2017.920</t>
-  </si>
-  <si>
-    <t>販売費</t>
-  </si>
-  <si>
-    <t>336.210</t>
-  </si>
-  <si>
-    <t>家賃</t>
-  </si>
-  <si>
-    <t>設備費</t>
-  </si>
-  <si>
-    <t>一般費用</t>
-  </si>
-  <si>
-    <t>158.000</t>
-  </si>
-  <si>
-    <t>販売一般管理費計</t>
-  </si>
-  <si>
-    <t>月間店舗利益</t>
-  </si>
-  <si>
-    <t>378.05</t>
-  </si>
-  <si>
-    <t>日次売上</t>
-  </si>
-  <si>
-    <t>638.000</t>
-  </si>
-  <si>
-    <t>AI予測売上</t>
-  </si>
-  <si>
-    <t>物流コスト</t>
-  </si>
-  <si>
-    <t>最終赤字月</t>
-  </si>
-  <si>
-    <t>レイアウトパターン</t>
-  </si>
-  <si>
-    <t>立地パターン</t>
-  </si>
-  <si>
-    <t>駐車場選択</t>
-  </si>
-  <si>
-    <t>駐車場台数</t>
-  </si>
-  <si>
-    <t>建物費</t>
-  </si>
-  <si>
-    <t>一般建設費</t>
-  </si>
-  <si>
-    <t>冷蔵設備総計</t>
-  </si>
-  <si>
-    <t>建物付帯設備</t>
-  </si>
-  <si>
-    <t>展示備品</t>
-  </si>
-  <si>
-    <t>看板</t>
-  </si>
-  <si>
-    <t>その他</t>
-  </si>
-  <si>
-    <t>非標準設備</t>
-  </si>
-  <si>
-    <t>減価償却総計</t>
-  </si>
-  <si>
-    <t>追加レジ数</t>
-  </si>
-  <si>
-    <t>追加セルフレジ数</t>
-  </si>
-  <si>
-    <t>仲介手数料</t>
-  </si>
-  <si>
-    <t>コンサルティング費用</t>
-  </si>
-  <si>
-    <t>礼金</t>
-  </si>
-  <si>
-    <t>敷金</t>
-  </si>
-  <si>
-    <t>建設協力金</t>
-  </si>
-  <si>
-    <t>支払頻度</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>年次</t>
-  </si>
-  <si>
-    <t>日次売上1年目</t>
-  </si>
-  <si>
-    <t>528.902</t>
-  </si>
-  <si>
-    <t>日次売上2年目</t>
-  </si>
-  <si>
-    <t>593.340</t>
-  </si>
-  <si>
-    <t>日次売上3年目</t>
-  </si>
-  <si>
-    <t>日次売上4年目</t>
-  </si>
-  <si>
-    <t>689.040</t>
-  </si>
-  <si>
-    <t>日次売上5年目</t>
-  </si>
-  <si>
-    <t>733.700</t>
-  </si>
-  <si>
-    <t>年間売上1年目</t>
-  </si>
-  <si>
-    <t>年間売上2年目</t>
-  </si>
-  <si>
-    <t>年間売上3年目</t>
-  </si>
-  <si>
-    <t>年間売上4年目</t>
-  </si>
-  <si>
-    <t>年間売上5年目</t>
-  </si>
-  <si>
-    <t>残月数</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>1年目店舗利益</t>
-  </si>
-  <si>
-    <t>2年目店舗利益</t>
-  </si>
-  <si>
-    <t>3年目店舗利益</t>
-  </si>
-  <si>
-    <t>4年目店舗利益</t>
-  </si>
-  <si>
-    <t>5年目店舗利益</t>
-  </si>
-  <si>
-    <t>契約期間選択</t>
-  </si>
-  <si>
-    <t>総人件費1</t>
-  </si>
-  <si>
-    <t>平均総人件費</t>
-  </si>
-  <si>
-    <t>社員人件費1</t>
-  </si>
-  <si>
-    <t>平均社員人件費</t>
-  </si>
-  <si>
-    <t>共同社員人件費1</t>
-  </si>
-  <si>
-    <t>平均共同社員人件費</t>
-  </si>
-  <si>
-    <t>平均給与1</t>
-  </si>
-  <si>
-    <t>平均給与</t>
-  </si>
-  <si>
-    <t>日次労働時間1</t>
-  </si>
-  <si>
-    <t>平均日次労働時間</t>
-  </si>
-  <si>
-    <t>テストテストテストテストテストテストテストテスト</t>
-    <phoneticPr fontId="3"/>
-  </si>
 </sst>
 </file>
 
@@ -1505,10 +1207,10 @@
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
     <numFmt numFmtId="177" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="178" formatCode="0.0%"/>
-    <numFmt numFmtId="185" formatCode="###0&quot;千&quot;&quot;円&quot;"/>
-    <numFmt numFmtId="186" formatCode="###0&quot;台&quot;"/>
-    <numFmt numFmtId="187" formatCode="###0&quot;回&quot;"/>
-    <numFmt numFmtId="188" formatCode="###0&quot;年&quot;"/>
+    <numFmt numFmtId="179" formatCode="###0&quot;千&quot;&quot;円&quot;"/>
+    <numFmt numFmtId="180" formatCode="###0&quot;台&quot;"/>
+    <numFmt numFmtId="181" formatCode="###0&quot;回&quot;"/>
+    <numFmt numFmtId="182" formatCode="###0&quot;年&quot;"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -2245,7 +1947,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2501,9 +2203,6 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2543,34 +2242,28 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2925,30 +2618,30 @@
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.4">
       <c r="R1" s="78" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.4">
       <c r="G2" s="39" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2" s="39"/>
-      <c r="I2" s="79" t="str">
+      <c r="I2" s="79">
         <f>貼り付け先!B2</f>
-        <v>杉並区永福3-47-11</v>
+        <v>0</v>
       </c>
       <c r="J2" s="79"/>
       <c r="K2" s="79"/>
       <c r="L2" s="39" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M2" s="39" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.4">
       <c r="O3" s="39" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P3" s="81">
         <f ca="1">TODAY()</f>
@@ -2958,45 +2651,45 @@
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.4">
       <c r="O4" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="P4" s="79" t="str">
+        <v>5</v>
+      </c>
+      <c r="P4" s="79">
         <f>貼り付け先!B3</f>
-        <v>新井</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="16"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B5" s="39" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="D6" t="str">
+      <c r="D6">
         <f>貼り付け先!B4</f>
-        <v>テストテストテストテストテストテストテストテスト</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.4">
       <c r="C7" s="39" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="D8" t="str">
+      <c r="D8">
         <f>貼り付け先!B5</f>
-        <v>テスト</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.4">
       <c r="C9" s="39" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.4">
       <c r="D10" s="40"/>
       <c r="E10" s="43" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F10" s="44"/>
       <c r="G10" s="44"/>
@@ -3004,46 +2697,46 @@
       <c r="I10" s="44"/>
       <c r="J10" s="44"/>
       <c r="K10" s="44" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L10" s="45"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.4">
       <c r="D11" s="41"/>
       <c r="E11" s="46" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F11" s="47"/>
       <c r="G11" s="47" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H11" s="47"/>
       <c r="I11" s="47" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J11" s="47"/>
       <c r="K11" s="47" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L11" s="48"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.4">
       <c r="D12" s="42" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E12" s="1">
         <f>貼り付け先!B6</f>
-        <v>814</v>
+        <v>0</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
         <f>貼り付け先!B7</f>
-        <v>1351</v>
+        <v>0</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2">
         <f>貼り付け先!B8</f>
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="82">
@@ -3053,170 +2746,170 @@
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.4">
       <c r="C13" s="39" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.4">
       <c r="D14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="D15" s="3" t="str">
+      <c r="D15" s="3">
         <f>貼り付け先!B11</f>
-        <v>2026年10月</v>
+        <v>0</v>
       </c>
       <c r="E15" s="4"/>
-      <c r="G15" s="5" t="str">
+      <c r="G15" s="5">
         <f>貼り付け先!B12</f>
-        <v>7:00:00</v>
+        <v>0</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J15" s="5" t="str">
+        <v>19</v>
+      </c>
+      <c r="J15" s="5">
         <f>貼り付け先!B13</f>
-        <v>23:00:00</v>
+        <v>0</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="7"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.4">
       <c r="C16" s="39" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="3:17" x14ac:dyDescent="0.4">
       <c r="D17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="3:17" x14ac:dyDescent="0.4">
       <c r="D18" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="4">
         <f>貼り付け先!B9</f>
-        <v>50.22</v>
+        <v>0</v>
       </c>
       <c r="G18" s="4"/>
       <c r="I18" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J18" s="7"/>
       <c r="K18" s="4">
         <f>貼り付け先!B10</f>
-        <v>43.5</v>
+        <v>0</v>
       </c>
       <c r="L18" s="4"/>
       <c r="N18" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="O18" s="7"/>
       <c r="P18" s="4">
         <f>F18-K18</f>
-        <v>6.7199999999999989</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="4"/>
     </row>
     <row r="19" spans="3:17" x14ac:dyDescent="0.4">
       <c r="C19" s="39" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="3:17" x14ac:dyDescent="0.4">
       <c r="D20" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="3:17" x14ac:dyDescent="0.4">
       <c r="D21" s="49" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E21" s="50"/>
       <c r="F21" s="42" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G21" s="51" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I21" s="49" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J21" s="70"/>
       <c r="K21" s="77" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="L21" s="48"/>
       <c r="N21" s="52" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="O21" s="53"/>
       <c r="P21" s="54" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="Q21" s="45"/>
     </row>
     <row r="22" spans="3:17" x14ac:dyDescent="0.4">
       <c r="D22" s="59" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E22" s="61"/>
       <c r="F22" s="28">
         <f>ROUND(貼り付け先!B14,0)</f>
-        <v>18372</v>
+        <v>0</v>
       </c>
       <c r="G22" s="32"/>
       <c r="I22" s="59" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J22" s="71"/>
       <c r="K22" s="36">
         <f>ROUND(貼り付け先!B23,0)</f>
-        <v>638</v>
+        <v>0</v>
       </c>
       <c r="L22" s="11"/>
       <c r="N22" s="55"/>
       <c r="O22" s="56"/>
       <c r="P22" s="57" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q22" s="58" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="3:17" x14ac:dyDescent="0.4">
       <c r="D23" s="62" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E23" s="63"/>
       <c r="F23" s="29">
         <f>ROUND(貼り付け先!B15,0)</f>
-        <v>4835</v>
-      </c>
-      <c r="G23" s="33">
+        <v>0</v>
+      </c>
+      <c r="G23" s="33" t="e">
         <f>F23/$F$22</f>
-        <v>0.26317221859351186</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I23" s="60" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J23" s="76"/>
       <c r="K23" s="38">
@@ -3225,111 +2918,111 @@
       </c>
       <c r="L23" s="10"/>
       <c r="N23" s="64" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="O23" s="65"/>
-      <c r="P23" s="89">
+      <c r="P23" s="88">
         <f>ROUND(貼り付け先!B66,0)</f>
-        <v>2085</v>
-      </c>
-      <c r="Q23" s="90">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="89">
         <f>ROUND(貼り付け先!B67,0)</f>
-        <v>2115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="3:17" x14ac:dyDescent="0.4">
       <c r="D24" s="62" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E24" s="63"/>
       <c r="F24" s="29">
         <f>ROUND(貼り付け先!B16,0)</f>
-        <v>2018</v>
-      </c>
-      <c r="G24" s="33">
+        <v>0</v>
+      </c>
+      <c r="G24" s="33" t="e">
         <f t="shared" ref="G24:G30" si="0">F24/$F$22</f>
-        <v>0.10984106248639233</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="N24" s="66" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="O24" s="67"/>
-      <c r="P24" s="91">
+      <c r="P24" s="90">
         <f>ROUND(貼り付け先!B68,0)</f>
-        <v>330</v>
-      </c>
-      <c r="Q24" s="92">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="91">
         <f>ROUND(貼り付け先!B69,0)</f>
-        <v>165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="3:17" x14ac:dyDescent="0.4">
       <c r="D25" s="62" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E25" s="63"/>
       <c r="F25" s="29">
         <f>ROUND(貼り付け先!B17,0)</f>
-        <v>336</v>
-      </c>
-      <c r="G25" s="33">
+        <v>0</v>
+      </c>
+      <c r="G25" s="33" t="e">
         <f t="shared" si="0"/>
-        <v>1.8288700195950358E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="N25" s="66" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="O25" s="67"/>
-      <c r="P25" s="91">
+      <c r="P25" s="90">
         <f>ROUND(貼り付け先!B70,0)</f>
-        <v>1755</v>
-      </c>
-      <c r="Q25" s="92">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="91">
         <f>ROUND(貼り付け先!B71,0)</f>
-        <v>1950</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="3:17" x14ac:dyDescent="0.4">
       <c r="D26" s="62" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E26" s="63"/>
       <c r="F26" s="29">
         <f>ROUND(貼り付け先!B18,0)</f>
-        <v>900</v>
-      </c>
-      <c r="G26" s="33">
+        <v>0</v>
+      </c>
+      <c r="G26" s="33" t="e">
         <f t="shared" si="0"/>
-        <v>4.8987589810581322E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="N26" s="66" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O26" s="67"/>
-      <c r="P26" s="91">
+      <c r="P26" s="90">
         <f>ROUND(貼り付け先!B72,0)</f>
-        <v>1634</v>
-      </c>
-      <c r="Q26" s="92">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="91">
         <f>ROUND(貼り付け先!B73,0)</f>
-        <v>1634</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="3:17" x14ac:dyDescent="0.4">
       <c r="D27" s="62" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E27" s="63"/>
       <c r="F27" s="29">
         <f>ROUND(貼り付け先!B19,0)</f>
-        <v>1945</v>
-      </c>
-      <c r="G27" s="33">
+        <v>0</v>
+      </c>
+      <c r="G27" s="33" t="e">
         <f>SUM(G26+4%)</f>
-        <v>8.898758981058133E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I27" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J27" s="4">
         <f>ROUND(貼り付け先!B25,0)</f>
@@ -3337,135 +3030,131 @@
       </c>
       <c r="K27" s="4"/>
       <c r="N27" s="68" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="O27" s="69"/>
-      <c r="P27" s="93">
+      <c r="P27" s="92">
         <f>ROUND(貼り付け先!B74,0)</f>
-        <v>36</v>
-      </c>
-      <c r="Q27" s="94">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="93">
         <f>ROUND(貼り付け先!B75,0)</f>
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="3:17" x14ac:dyDescent="0.4">
       <c r="D28" s="62" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E28" s="63"/>
       <c r="F28" s="29">
         <f>ROUND(貼り付け先!B20,0)</f>
-        <v>158</v>
-      </c>
-      <c r="G28" s="33">
+        <v>0</v>
+      </c>
+      <c r="G28" s="33" t="e">
         <f t="shared" si="0"/>
-        <v>8.6000435445242763E-3</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I28" s="80" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="3:17" x14ac:dyDescent="0.4">
       <c r="D29" s="73" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E29" s="74"/>
       <c r="F29" s="30">
         <f>ROUND(貼り付け先!B21,0)</f>
-        <v>4457</v>
-      </c>
-      <c r="G29" s="84">
+        <v>0</v>
+      </c>
+      <c r="G29" s="84" t="e">
         <f t="shared" si="0"/>
-        <v>0.2425974308730677</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30" spans="3:17" x14ac:dyDescent="0.4">
       <c r="D30" s="49" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E30" s="50"/>
       <c r="F30" s="31">
         <f>ROUND(貼り付け先!B22,0)</f>
-        <v>378</v>
-      </c>
-      <c r="G30" s="88">
+        <v>0</v>
+      </c>
+      <c r="G30" s="87" t="e">
         <f t="shared" si="0"/>
-        <v>2.0574787720444153E-2</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31" spans="3:17" x14ac:dyDescent="0.4">
-      <c r="D31" s="85"/>
-      <c r="E31" s="85"/>
-      <c r="F31" s="86"/>
-      <c r="G31" s="87"/>
+      <c r="F31" s="85"/>
+      <c r="G31" s="86"/>
     </row>
     <row r="32" spans="3:17" x14ac:dyDescent="0.4">
-      <c r="D32" s="85"/>
-      <c r="E32" s="85"/>
-      <c r="F32" s="86"/>
-      <c r="G32" s="87"/>
+      <c r="F32" s="85"/>
+      <c r="G32" s="86"/>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B34" s="39" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E34" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G34" s="4" t="str">
         <f>貼り付け先!B26&amp;"ヶ月"</f>
-        <v>57ヶ月</v>
+        <v>ヶ月</v>
       </c>
       <c r="H34" s="4"/>
       <c r="I34" t="s">
-        <v>57</v>
-      </c>
-      <c r="K34" s="4" t="str">
+        <v>54</v>
+      </c>
+      <c r="K34" s="4">
         <f>貼り付け先!B27</f>
-        <v>標準新築</v>
+        <v>0</v>
       </c>
       <c r="L34" s="4"/>
       <c r="N34" t="s">
-        <v>59</v>
-      </c>
-      <c r="P34" s="4" t="str">
+        <v>55</v>
+      </c>
+      <c r="P34" s="4">
         <f>貼り付け先!B28</f>
-        <v>住宅街立地</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="4"/>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.4">
       <c r="I35" t="s">
-        <v>60</v>
-      </c>
-      <c r="K35" s="16" t="str">
+        <v>56</v>
+      </c>
+      <c r="K35" s="16">
         <f>貼り付け先!B29</f>
-        <v>なし</v>
+        <v>0</v>
       </c>
       <c r="L35" s="16"/>
       <c r="N35" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="P35" s="17">
         <f>貼り付け先!B30</f>
         <v>0</v>
       </c>
       <c r="Q35" s="13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.4">
       <c r="D36" s="49" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E36" s="50"/>
       <c r="F36" s="70"/>
       <c r="G36" s="42" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H36" s="49" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I36" s="50"/>
       <c r="J36" s="50"/>
@@ -3479,7 +3168,7 @@
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.4">
       <c r="D37" s="59" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E37" s="61"/>
       <c r="F37" s="71"/>
@@ -3488,7 +3177,7 @@
         <v>0</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I37" s="18"/>
       <c r="J37" s="18"/>
@@ -3502,16 +3191,16 @@
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.4">
       <c r="D38" s="62" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E38" s="63"/>
       <c r="F38" s="72"/>
       <c r="G38" s="29">
         <f>ROUND(貼り付け先!B32,0)</f>
-        <v>17276</v>
+        <v>0</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I38" s="14"/>
       <c r="J38" s="14"/>
@@ -3525,16 +3214,16 @@
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.4">
       <c r="D39" s="62" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E39" s="63"/>
       <c r="F39" s="72"/>
       <c r="G39" s="29">
         <f>ROUND(貼り付け先!B33,0)</f>
-        <v>17315</v>
+        <v>0</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I39" s="14"/>
       <c r="J39" s="14"/>
@@ -3548,16 +3237,16 @@
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.4">
       <c r="D40" s="62" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E40" s="63"/>
       <c r="F40" s="72"/>
       <c r="G40" s="29">
         <f>ROUND(貼り付け先!B34,0)</f>
-        <v>981</v>
+        <v>0</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I40" s="14"/>
       <c r="J40" s="14"/>
@@ -3571,16 +3260,16 @@
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.4">
       <c r="D41" s="62" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E41" s="63"/>
       <c r="F41" s="72"/>
       <c r="G41" s="29">
         <f>ROUND(貼り付け先!B35,0)</f>
-        <v>1710</v>
+        <v>0</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I41" s="14"/>
       <c r="J41" s="14"/>
@@ -3594,16 +3283,16 @@
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.4">
       <c r="D42" s="62" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E42" s="63"/>
       <c r="F42" s="72"/>
       <c r="G42" s="29">
         <f>ROUND(貼り付け先!B36,0)</f>
-        <v>2350</v>
+        <v>0</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I42" s="14"/>
       <c r="J42" s="14"/>
@@ -3617,16 +3306,16 @@
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.4">
       <c r="D43" s="62" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E43" s="63"/>
       <c r="F43" s="72"/>
       <c r="G43" s="29">
         <f>ROUND(貼り付け先!B37,0)</f>
-        <v>2972</v>
+        <v>0</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I43" s="14"/>
       <c r="J43" s="14"/>
@@ -3640,36 +3329,36 @@
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.4">
       <c r="D44" s="62" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E44" s="63"/>
       <c r="F44" s="72"/>
       <c r="G44" s="29">
         <f>ROUND(貼り付け先!B38,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I44" s="14"/>
+      <c r="J44" s="98">
         <v>1350</v>
       </c>
-      <c r="H44" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="I44" s="14"/>
-      <c r="J44" s="101">
-        <v>1350</v>
-      </c>
-      <c r="K44" s="96"/>
+      <c r="K44" s="95"/>
       <c r="L44" s="14" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="M44" s="14"/>
-      <c r="N44" s="101">
-        <v>0</v>
-      </c>
-      <c r="O44" s="96"/>
+      <c r="N44" s="98">
+        <v>0</v>
+      </c>
+      <c r="O44" s="95"/>
       <c r="P44" s="14"/>
       <c r="Q44" s="15"/>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.4">
       <c r="D45" s="62" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E45" s="63"/>
       <c r="F45" s="72"/>
@@ -3678,13 +3367,13 @@
         <v>2990</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I45" s="14"/>
-      <c r="J45" s="101">
+      <c r="J45" s="98">
         <v>2990</v>
       </c>
-      <c r="K45" s="96"/>
+      <c r="K45" s="95"/>
       <c r="L45" s="14"/>
       <c r="M45" s="14"/>
       <c r="N45" s="14"/>
@@ -3694,52 +3383,52 @@
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.4">
       <c r="D46" s="73" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E46" s="74"/>
       <c r="F46" s="75"/>
       <c r="G46" s="30">
         <f>J46</f>
-        <v>451</v>
+        <v>0</v>
       </c>
       <c r="H46" s="21" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I46" s="22"/>
-      <c r="J46" s="103">
+      <c r="J46" s="100">
         <f>(850*N46)+(451*Q46)</f>
-        <v>451</v>
-      </c>
-      <c r="K46" s="95"/>
+        <v>0</v>
+      </c>
+      <c r="K46" s="94"/>
       <c r="L46" s="22" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="M46" s="22"/>
-      <c r="N46" s="104">
+      <c r="N46" s="101">
         <f>ROUND(貼り付け先!B40,0)</f>
         <v>0</v>
       </c>
       <c r="O46" s="22" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="P46" s="22"/>
-      <c r="Q46" s="105">
+      <c r="Q46" s="102">
         <f>ROUND(貼り付け先!B41,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.4">
       <c r="D47" s="49" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E47" s="50"/>
       <c r="F47" s="70"/>
       <c r="G47" s="31">
         <f>ROUND(貼り付け先!B39,0)</f>
-        <v>47395</v>
+        <v>0</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I47" s="13"/>
       <c r="J47" s="13"/>
@@ -3753,64 +3442,64 @@
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.4">
       <c r="D48" s="59" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E48" s="61"/>
       <c r="F48" s="71"/>
       <c r="G48" s="28">
         <f>SUM(K48+N48)</f>
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="I48" s="18"/>
       <c r="J48" s="18"/>
-      <c r="K48" s="102">
+      <c r="K48" s="99">
         <f>ROUND(貼り付け先!B42,0)+ROUND(貼り付け先!B43,0)</f>
         <v>0</v>
       </c>
-      <c r="L48" s="97"/>
+      <c r="L48" s="96"/>
       <c r="M48" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="N48" s="102">
+        <v>89</v>
+      </c>
+      <c r="N48" s="99">
         <f>ROUND(貼り付け先!B44,0)/1000</f>
-        <v>900</v>
-      </c>
-      <c r="O48" s="97"/>
+        <v>0</v>
+      </c>
+      <c r="O48" s="96"/>
       <c r="P48" s="18"/>
       <c r="Q48" s="19"/>
     </row>
     <row r="49" spans="2:18" x14ac:dyDescent="0.4">
       <c r="D49" s="62" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E49" s="63"/>
       <c r="F49" s="72"/>
       <c r="G49" s="29">
         <f>SUM(K49)</f>
-        <v>5400</v>
+        <v>0</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="I49" s="14"/>
       <c r="J49" s="14"/>
-      <c r="K49" s="101">
+      <c r="K49" s="98">
         <f>ROUND(貼り付け先!B45,0)</f>
-        <v>5400</v>
-      </c>
-      <c r="L49" s="96"/>
+        <v>0</v>
+      </c>
+      <c r="L49" s="95"/>
       <c r="M49" s="14"/>
-      <c r="N49" s="96"/>
-      <c r="O49" s="96"/>
+      <c r="N49" s="95"/>
+      <c r="O49" s="95"/>
       <c r="P49" s="14"/>
       <c r="Q49" s="15"/>
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.4">
       <c r="D50" s="73" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E50" s="74"/>
       <c r="F50" s="75"/>
@@ -3819,38 +3508,38 @@
         <v>0</v>
       </c>
       <c r="H50" s="21" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="I50" s="22"/>
       <c r="J50" s="22"/>
-      <c r="K50" s="103">
+      <c r="K50" s="100">
         <f>貼り付け先!B46</f>
         <v>0</v>
       </c>
-      <c r="L50" s="95"/>
+      <c r="L50" s="94"/>
       <c r="M50" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="N50" s="106">
+        <v>94</v>
+      </c>
+      <c r="N50" s="103">
         <f>ROUND(貼り付け先!B47,0)</f>
         <v>0</v>
       </c>
-      <c r="O50" s="95"/>
+      <c r="O50" s="94"/>
       <c r="P50" s="22"/>
       <c r="Q50" s="23"/>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.4">
       <c r="D51" s="49" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E51" s="50"/>
       <c r="F51" s="70"/>
       <c r="G51" s="31">
         <f>SUM(G47:G50)</f>
-        <v>53695</v>
+        <v>0</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I51" s="13"/>
       <c r="J51" s="13"/>
@@ -3864,176 +3553,176 @@
     </row>
     <row r="53" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B53" s="39" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="2:18" x14ac:dyDescent="0.4">
       <c r="D54" t="s">
-        <v>102</v>
-      </c>
-      <c r="I54" s="100" t="str">
+        <v>97</v>
+      </c>
+      <c r="I54" s="16" t="str">
         <f>貼り付け先!B59&amp;"ヶ月"</f>
-        <v>3ヶ月</v>
-      </c>
-      <c r="J54" s="99"/>
+        <v>ヶ月</v>
+      </c>
+      <c r="J54" s="16"/>
     </row>
     <row r="55" spans="2:18" x14ac:dyDescent="0.4">
       <c r="D55" s="49" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E55" s="70"/>
-      <c r="F55" s="107">
+      <c r="F55" s="104">
         <f>貼り付け先!B48</f>
-        <v>2026</v>
+        <v>0</v>
       </c>
       <c r="G55" s="47"/>
-      <c r="H55" s="108">
+      <c r="H55" s="105">
         <f>F55+1</f>
-        <v>2027</v>
+        <v>1</v>
       </c>
       <c r="I55" s="47"/>
-      <c r="J55" s="108">
+      <c r="J55" s="105">
         <f>H55+1</f>
-        <v>2028</v>
+        <v>2</v>
       </c>
       <c r="K55" s="47"/>
-      <c r="L55" s="108">
+      <c r="L55" s="105">
         <f>J55+1</f>
-        <v>2029</v>
+        <v>3</v>
       </c>
       <c r="M55" s="47"/>
-      <c r="N55" s="108">
+      <c r="N55" s="105">
         <f>L55+1</f>
-        <v>2030</v>
+        <v>4</v>
       </c>
       <c r="O55" s="48"/>
     </row>
     <row r="56" spans="2:18" x14ac:dyDescent="0.4">
       <c r="D56" s="59" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E56" s="71"/>
       <c r="F56" s="36">
         <f>貼り付け先!B54</f>
-        <v>46404</v>
+        <v>0</v>
       </c>
       <c r="G56" s="34"/>
       <c r="H56" s="34">
         <f>貼り付け先!B55</f>
-        <v>198681</v>
+        <v>0</v>
       </c>
       <c r="I56" s="34"/>
       <c r="J56" s="34">
         <f>貼り付け先!B56</f>
-        <v>220463</v>
+        <v>0</v>
       </c>
       <c r="K56" s="34"/>
       <c r="L56" s="34">
         <f>貼り付け先!B57</f>
-        <v>237322</v>
+        <v>0</v>
       </c>
       <c r="M56" s="34"/>
       <c r="N56" s="34">
         <f>貼り付け先!B58</f>
-        <v>255389</v>
+        <v>0</v>
       </c>
       <c r="O56" s="35"/>
     </row>
     <row r="57" spans="2:18" x14ac:dyDescent="0.4">
       <c r="D57" s="62" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E57" s="72"/>
       <c r="F57" s="37">
         <f>貼り付け先!B60</f>
-        <v>-1154.31</v>
+        <v>0</v>
       </c>
       <c r="G57" s="24"/>
       <c r="H57" s="24">
         <f>貼り付け先!B61</f>
-        <v>-1518.1200000000001</v>
+        <v>0</v>
       </c>
       <c r="I57" s="24"/>
       <c r="J57" s="24">
         <f>貼り付け先!B62</f>
-        <v>4536.6000000000004</v>
+        <v>0</v>
       </c>
       <c r="K57" s="24"/>
       <c r="L57" s="24">
         <f>貼り付け先!B63</f>
-        <v>8236.7999999999993</v>
+        <v>0</v>
       </c>
       <c r="M57" s="24"/>
       <c r="N57" s="24">
         <f>貼り付け先!B64</f>
-        <v>12581.16</v>
+        <v>0</v>
       </c>
       <c r="O57" s="25"/>
     </row>
     <row r="58" spans="2:18" x14ac:dyDescent="0.4">
       <c r="D58" s="60" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E58" s="76"/>
       <c r="F58" s="38">
         <f>ROUND(貼り付け先!B49,0)</f>
-        <v>529</v>
+        <v>0</v>
       </c>
       <c r="G58" s="26"/>
       <c r="H58" s="26">
         <f>ROUND(貼り付け先!B50,0)</f>
-        <v>593</v>
+        <v>0</v>
       </c>
       <c r="I58" s="26"/>
       <c r="J58" s="26">
         <f>ROUND(貼り付け先!B51,0)</f>
-        <v>638</v>
+        <v>0</v>
       </c>
       <c r="K58" s="26"/>
       <c r="L58" s="26">
         <f>ROUND(貼り付け先!B52,0)</f>
-        <v>689</v>
+        <v>0</v>
       </c>
       <c r="M58" s="26"/>
       <c r="N58" s="26">
         <f>ROUND(貼り付け先!B53,0)</f>
-        <v>734</v>
+        <v>0</v>
       </c>
       <c r="O58" s="27"/>
     </row>
     <row r="60" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B60" s="39" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="2:18" x14ac:dyDescent="0.4">
       <c r="C61" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G61" s="7">
         <v>10</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="K61" s="7"/>
-      <c r="L61" s="98"/>
+      <c r="L61" s="97"/>
       <c r="M61" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="P61" s="7"/>
-      <c r="Q61" s="98"/>
+      <c r="Q61" s="97"/>
       <c r="R61" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -4048,615 +3737,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B983D7D2-37C8-4221-B322-162D65A47F91}">
-  <dimension ref="A1:B75"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B6">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>123</v>
-      </c>
-      <c r="B7">
-        <v>1351</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B8">
-        <v>1.66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B9">
-        <v>50.22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>126</v>
-      </c>
-      <c r="B10">
-        <v>43.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>127</v>
-      </c>
-      <c r="B11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>129</v>
-      </c>
-      <c r="B12" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>131</v>
-      </c>
-      <c r="B13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>133</v>
-      </c>
-      <c r="B14" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>135</v>
-      </c>
-      <c r="B15" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>137</v>
-      </c>
-      <c r="B16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>139</v>
-      </c>
-      <c r="B17" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>141</v>
-      </c>
-      <c r="B18">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>142</v>
-      </c>
-      <c r="B19">
-        <v>1945</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>143</v>
-      </c>
-      <c r="B20" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>145</v>
-      </c>
-      <c r="B21">
-        <v>4457</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>146</v>
-      </c>
-      <c r="B22" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>148</v>
-      </c>
-      <c r="B23" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>150</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>151</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>152</v>
-      </c>
-      <c r="B26">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
-        <v>153</v>
-      </c>
-      <c r="B27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
-        <v>154</v>
-      </c>
-      <c r="B28" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
-        <v>155</v>
-      </c>
-      <c r="B29" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
-        <v>156</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
-        <v>157</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
-        <v>158</v>
-      </c>
-      <c r="B32">
-        <v>17276.09</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
-        <v>159</v>
-      </c>
-      <c r="B33">
-        <v>17315</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
-        <v>160</v>
-      </c>
-      <c r="B34">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
-        <v>161</v>
-      </c>
-      <c r="B35">
-        <v>1710</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
-        <v>162</v>
-      </c>
-      <c r="B36">
-        <v>2350</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
-        <v>163</v>
-      </c>
-      <c r="B37">
-        <v>2972</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
-        <v>164</v>
-      </c>
-      <c r="B38">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
-        <v>165</v>
-      </c>
-      <c r="B39">
-        <v>47395.09</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
-        <v>166</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A41" t="s">
-        <v>167</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
-        <v>168</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A43" t="s">
-        <v>169</v>
-      </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A44" t="s">
-        <v>170</v>
-      </c>
-      <c r="B44">
-        <v>900000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A45" t="s">
-        <v>171</v>
-      </c>
-      <c r="B45">
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A46" t="s">
-        <v>172</v>
-      </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A47" t="s">
-        <v>173</v>
-      </c>
-      <c r="B47" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A48" t="s">
-        <v>175</v>
-      </c>
-      <c r="B48">
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A49" t="s">
-        <v>176</v>
-      </c>
-      <c r="B49" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A50" t="s">
-        <v>178</v>
-      </c>
-      <c r="B50" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A51" t="s">
-        <v>180</v>
-      </c>
-      <c r="B51" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A52" t="s">
-        <v>181</v>
-      </c>
-      <c r="B52" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A53" t="s">
-        <v>183</v>
-      </c>
-      <c r="B53" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A54" t="s">
-        <v>185</v>
-      </c>
-      <c r="B54">
-        <v>46404</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A55" t="s">
-        <v>186</v>
-      </c>
-      <c r="B55">
-        <v>198681</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A56" t="s">
-        <v>187</v>
-      </c>
-      <c r="B56">
-        <v>220463</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A57" t="s">
-        <v>188</v>
-      </c>
-      <c r="B57">
-        <v>237322</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A58" t="s">
-        <v>189</v>
-      </c>
-      <c r="B58">
-        <v>255389</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A59" t="s">
-        <v>190</v>
-      </c>
-      <c r="B59" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A60" t="s">
-        <v>192</v>
-      </c>
-      <c r="B60">
-        <v>-1154.31</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A61" t="s">
-        <v>193</v>
-      </c>
-      <c r="B61">
-        <v>-1518.1200000000001</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A62" t="s">
-        <v>194</v>
-      </c>
-      <c r="B62">
-        <v>4536.6000000000004</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A63" t="s">
-        <v>195</v>
-      </c>
-      <c r="B63">
-        <v>8236.7999999999993</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A64" t="s">
-        <v>196</v>
-      </c>
-      <c r="B64">
-        <v>12581.16</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A65" t="s">
-        <v>197</v>
-      </c>
-      <c r="B65">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A66" t="s">
-        <v>198</v>
-      </c>
-      <c r="B66">
-        <v>2084.88</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A67" t="s">
-        <v>199</v>
-      </c>
-      <c r="B67">
-        <v>2114.98</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A68" t="s">
-        <v>200</v>
-      </c>
-      <c r="B68">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A69" t="s">
-        <v>201</v>
-      </c>
-      <c r="B69">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A70" t="s">
-        <v>202</v>
-      </c>
-      <c r="B70">
-        <v>1755</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A71" t="s">
-        <v>203</v>
-      </c>
-      <c r="B71">
-        <v>1949.8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A72" t="s">
-        <v>204</v>
-      </c>
-      <c r="B72">
-        <v>1633.97</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A73" t="s">
-        <v>205</v>
-      </c>
-      <c r="B73">
-        <v>1633.97</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A74" t="s">
-        <v>206</v>
-      </c>
-      <c r="B74">
-        <v>35.799999999999997</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A75" t="s">
-        <v>207</v>
-      </c>
-      <c r="B75">
-        <v>39.780000000000008</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/file/【原本】経営計画書.xlsx
+++ b/file/【原本】経営計画書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csar7\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35A7813-FEE0-4D51-AF68-A8C4653682C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D379DC96-EC6A-473C-824E-9450E703B4B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1155" yWindow="915" windowWidth="26715" windowHeight="13515" xr2:uid="{34508500-E495-407F-A4BB-0D043D80C209}"/>
+    <workbookView xWindow="2025" yWindow="1590" windowWidth="26715" windowHeight="13515" xr2:uid="{34508500-E495-407F-A4BB-0D043D80C209}"/>
   </bookViews>
   <sheets>
     <sheet name="経営計画書" sheetId="1" r:id="rId1"/>
